--- a/EPOCH_VehicleProperties.xlsx
+++ b/EPOCH_VehicleProperties.xlsx
@@ -1044,8 +1044,8 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="D7:F12"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2584,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="13">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C59" s="13">
         <v>276</v>
@@ -2613,7 +2613,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="13">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C60" s="13">
         <v>276</v>
@@ -2642,7 +2642,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="13">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C61" s="13">
         <v>276</v>
@@ -2671,7 +2671,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="15">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C62" s="15">
         <v>276</v>

--- a/EPOCH_VehicleProperties.xlsx
+++ b/EPOCH_VehicleProperties.xlsx
@@ -13,6 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>He-Man</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>He-Man:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Youcan not compare Armor between different vehicle classes!
+It is only to compare between the upgrade levels!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
@@ -398,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +454,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1040,12 +1088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,5 +4781,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EPOCH_VehicleProperties.xlsx
+++ b/EPOCH_VehicleProperties.xlsx
@@ -29,6 +29,31 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">HeMan:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Do not compare it between different vehicle classes!
+It is only to compare between the upgrade levels!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>He-Man:</t>
         </r>
         <r>
@@ -39,8 +64,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Youcan not compare Armor between different vehicle classes!
-It is only to compare between the upgrade levels!</t>
+The lower, the better!</t>
         </r>
       </text>
     </comment>
@@ -49,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Armor</t>
   </si>
@@ -427,6 +451,30 @@
   </si>
   <si>
     <t>ebike_epoch</t>
+  </si>
+  <si>
+    <t>A2_Golf</t>
+  </si>
+  <si>
+    <t>A2_Hummvee</t>
+  </si>
+  <si>
+    <t>A2_Lada</t>
+  </si>
+  <si>
+    <t>A2_SUV</t>
+  </si>
+  <si>
+    <t>A2_UAZ</t>
+  </si>
+  <si>
+    <t>A2_Ural</t>
+  </si>
+  <si>
+    <t>A2_Vodnik</t>
+  </si>
+  <si>
+    <t>A2_Volha</t>
   </si>
 </sst>
 </file>
@@ -1089,18 +1137,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1617,86 +1665,86 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B21" s="11">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C21" s="11">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="D21" s="11">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="E21" s="11">
-        <v>45</v>
-      </c>
-      <c r="F21" s="11">
+        <v>40</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1350</v>
+      </c>
+      <c r="H21" s="11">
+        <v>180</v>
+      </c>
+      <c r="I21" s="12">
         <v>2.5</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H21" s="11">
-        <v>30</v>
-      </c>
-      <c r="I21" s="12">
-        <v>2.75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B22" s="13">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="C22" s="13">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="D22" s="13">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="E22" s="13">
-        <v>45</v>
-      </c>
-      <c r="F22" s="13">
+        <v>40</v>
+      </c>
+      <c r="F22" s="19">
         <v>2.5</v>
       </c>
       <c r="G22" s="13">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="H22" s="13">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="I22" s="14">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B23" s="13">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="C23" s="13">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="D23" s="13">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="E23" s="13">
-        <v>50</v>
-      </c>
-      <c r="F23" s="13">
-        <v>2.2999999999999998</v>
+        <v>40</v>
+      </c>
+      <c r="F23" s="19">
+        <v>4.5</v>
       </c>
       <c r="G23" s="13">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="H23" s="13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I23" s="14">
         <v>2.5</v>
@@ -1704,2629 +1752,2629 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B24" s="13">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C24" s="13">
         <v>408</v>
       </c>
       <c r="D24" s="13">
-        <v>750</v>
+        <v>695</v>
       </c>
       <c r="E24" s="13">
-        <v>55</v>
-      </c>
-      <c r="F24" s="13">
-        <v>2.1</v>
+        <v>40</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2.5</v>
       </c>
       <c r="G24" s="13">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="H24" s="13">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I24" s="14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="B25" s="13">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="C25" s="13">
         <v>408</v>
       </c>
       <c r="D25" s="13">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="E25" s="13">
-        <v>60</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1.9</v>
+        <v>40</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1.8</v>
       </c>
       <c r="G25" s="13">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="H25" s="13">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I25" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="15">
-        <v>270</v>
-      </c>
-      <c r="C26" s="15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="13">
+        <v>120</v>
+      </c>
+      <c r="C26" s="13">
         <v>408</v>
       </c>
-      <c r="D26" s="15">
-        <v>850</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="13">
+        <v>320</v>
+      </c>
+      <c r="E26" s="13">
+        <v>40</v>
+      </c>
+      <c r="F26" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="13">
+        <v>2250</v>
+      </c>
+      <c r="H26" s="13">
         <v>65</v>
       </c>
-      <c r="F26" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1700</v>
-      </c>
-      <c r="H26" s="15">
-        <v>65</v>
-      </c>
-      <c r="I26" s="16">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11">
-        <v>200</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="I26" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="13">
+        <v>110</v>
+      </c>
+      <c r="C27" s="13">
+        <v>408</v>
+      </c>
+      <c r="D27" s="13">
+        <v>650</v>
+      </c>
+      <c r="E27" s="13">
+        <v>40</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H27" s="13">
+        <v>120</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="13">
         <v>150</v>
       </c>
-      <c r="D28" s="11">
-        <v>425</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="C28" s="13">
+        <v>408</v>
+      </c>
+      <c r="D28" s="13">
+        <v>500</v>
+      </c>
+      <c r="E28" s="13">
+        <v>40</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1500</v>
+      </c>
+      <c r="H28" s="13">
+        <v>70</v>
+      </c>
+      <c r="I28" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="11">
+        <v>249</v>
+      </c>
+      <c r="C30" s="11">
+        <v>408</v>
+      </c>
+      <c r="D30" s="11">
+        <v>680</v>
+      </c>
+      <c r="E30" s="11">
         <v>45</v>
       </c>
-      <c r="F28" s="11">
-        <v>2</v>
-      </c>
-      <c r="G28" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="F30" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H30" s="11">
         <v>30</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I30" s="12">
         <v>2.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="13">
-        <v>200</v>
-      </c>
-      <c r="C29" s="13">
-        <v>150</v>
-      </c>
-      <c r="D29" s="13">
-        <v>425</v>
-      </c>
-      <c r="E29" s="13">
-        <v>45</v>
-      </c>
-      <c r="F29" s="13">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1750</v>
-      </c>
-      <c r="H29" s="13">
-        <v>50</v>
-      </c>
-      <c r="I29" s="14">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="13">
-        <v>205</v>
-      </c>
-      <c r="C30" s="13">
-        <v>150</v>
-      </c>
-      <c r="D30" s="13">
-        <v>450</v>
-      </c>
-      <c r="E30" s="13">
-        <v>50</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1800</v>
-      </c>
-      <c r="H30" s="13">
-        <v>60</v>
-      </c>
-      <c r="I30" s="14">
-        <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B31" s="13">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C31" s="13">
-        <v>150</v>
+        <v>408</v>
       </c>
       <c r="D31" s="13">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="E31" s="13">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F31" s="13">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="G31" s="13">
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="H31" s="13">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I31" s="14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B32" s="13">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="C32" s="13">
-        <v>150</v>
+        <v>408</v>
       </c>
       <c r="D32" s="13">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E32" s="13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F32" s="13">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G32" s="13">
-        <v>1900</v>
+        <v>1550</v>
       </c>
       <c r="H32" s="13">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I32" s="14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="13">
+        <v>260</v>
+      </c>
+      <c r="C33" s="13">
+        <v>408</v>
+      </c>
+      <c r="D33" s="13">
+        <v>750</v>
+      </c>
+      <c r="E33" s="13">
+        <v>55</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H33" s="13">
+        <v>55</v>
+      </c>
+      <c r="I33" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="13">
+        <v>265</v>
+      </c>
+      <c r="C34" s="13">
+        <v>408</v>
+      </c>
+      <c r="D34" s="13">
+        <v>800</v>
+      </c>
+      <c r="E34" s="13">
+        <v>60</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1650</v>
+      </c>
+      <c r="H34" s="13">
+        <v>60</v>
+      </c>
+      <c r="I34" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="15">
+        <v>270</v>
+      </c>
+      <c r="C35" s="15">
+        <v>408</v>
+      </c>
+      <c r="D35" s="15">
+        <v>850</v>
+      </c>
+      <c r="E35" s="15">
+        <v>65</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1700</v>
+      </c>
+      <c r="H35" s="15">
+        <v>65</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="11">
+        <v>200</v>
+      </c>
+      <c r="C37" s="11">
+        <v>150</v>
+      </c>
+      <c r="D37" s="11">
+        <v>425</v>
+      </c>
+      <c r="E37" s="11">
+        <v>45</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2</v>
+      </c>
+      <c r="G37" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="13">
-        <v>220</v>
-      </c>
-      <c r="C33" s="13">
-        <v>150</v>
-      </c>
-      <c r="D33" s="13">
-        <v>600</v>
-      </c>
-      <c r="E33" s="13">
-        <v>65</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1950</v>
-      </c>
-      <c r="H33" s="13">
-        <v>90</v>
-      </c>
-      <c r="I33" s="14">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="15">
-        <v>220</v>
-      </c>
-      <c r="C34" s="15">
-        <v>150</v>
-      </c>
-      <c r="D34" s="15">
-        <v>600</v>
-      </c>
-      <c r="E34" s="15">
-        <v>65</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="G34" s="15">
-        <v>1950</v>
-      </c>
-      <c r="H34" s="15">
-        <v>90</v>
-      </c>
-      <c r="I34" s="16">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="11">
+      <c r="I37" s="12">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="13">
         <v>200</v>
-      </c>
-      <c r="C36" s="11">
-        <v>150</v>
-      </c>
-      <c r="D36" s="11">
-        <v>425</v>
-      </c>
-      <c r="E36" s="11">
-        <v>45</v>
-      </c>
-      <c r="F36" s="11">
-        <v>2</v>
-      </c>
-      <c r="G36" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H36" s="11">
-        <v>30</v>
-      </c>
-      <c r="I36" s="12">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="13">
-        <v>200</v>
-      </c>
-      <c r="C37" s="13">
-        <v>150</v>
-      </c>
-      <c r="D37" s="13">
-        <v>425</v>
-      </c>
-      <c r="E37" s="13">
-        <v>45</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H37" s="13">
-        <v>50</v>
-      </c>
-      <c r="I37" s="14">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="13">
-        <v>205</v>
       </c>
       <c r="C38" s="13">
         <v>150</v>
       </c>
       <c r="D38" s="13">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E38" s="13">
+        <v>45</v>
+      </c>
+      <c r="F38" s="13">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1750</v>
+      </c>
+      <c r="H38" s="13">
         <v>50</v>
       </c>
-      <c r="F38" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G38" s="13">
-        <v>1550</v>
-      </c>
-      <c r="H38" s="13">
-        <v>60</v>
-      </c>
       <c r="I38" s="14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
+      <c r="A39" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="13">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C39" s="13">
         <v>150</v>
       </c>
       <c r="D39" s="13">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="E39" s="13">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F39" s="13">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G39" s="13">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H39" s="13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I39" s="14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>23</v>
+      <c r="A40" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B40" s="13">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C40" s="13">
         <v>150</v>
       </c>
       <c r="D40" s="13">
+        <v>500</v>
+      </c>
+      <c r="E40" s="13">
+        <v>55</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1850</v>
+      </c>
+      <c r="H40" s="13">
+        <v>70</v>
+      </c>
+      <c r="I40" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="13">
+        <v>215</v>
+      </c>
+      <c r="C41" s="13">
+        <v>150</v>
+      </c>
+      <c r="D41" s="13">
         <v>550</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>60</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>1.4</v>
       </c>
-      <c r="G40" s="13">
-        <v>1650</v>
-      </c>
-      <c r="H40" s="13">
+      <c r="G41" s="13">
+        <v>1900</v>
+      </c>
+      <c r="H41" s="13">
         <v>80</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="13">
         <v>220</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C42" s="13">
         <v>150</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="13">
         <v>600</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="13">
         <v>65</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="13">
         <v>1.2</v>
       </c>
-      <c r="G41" s="15">
-        <v>1700</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="G42" s="13">
+        <v>1950</v>
+      </c>
+      <c r="H42" s="13">
         <v>90</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="14">
         <v>1.75</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="11">
-        <v>115</v>
-      </c>
-      <c r="C43" s="11">
-        <v>170</v>
-      </c>
-      <c r="D43" s="11">
-        <v>550</v>
-      </c>
-      <c r="E43" s="11">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="15">
+        <v>220</v>
+      </c>
+      <c r="C43" s="15">
+        <v>150</v>
+      </c>
+      <c r="D43" s="15">
+        <v>600</v>
+      </c>
+      <c r="E43" s="15">
+        <v>65</v>
+      </c>
+      <c r="F43" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1950</v>
+      </c>
+      <c r="H43" s="15">
+        <v>90</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="11">
+        <v>200</v>
+      </c>
+      <c r="C45" s="11">
+        <v>150</v>
+      </c>
+      <c r="D45" s="11">
+        <v>425</v>
+      </c>
+      <c r="E45" s="11">
         <v>45</v>
       </c>
-      <c r="F43" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G43" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H43" s="11">
-        <v>80</v>
-      </c>
-      <c r="I43" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="13">
-        <v>115</v>
-      </c>
-      <c r="C44" s="13">
-        <v>170</v>
-      </c>
-      <c r="D44" s="13">
-        <v>550</v>
-      </c>
-      <c r="E44" s="13">
+      <c r="F45" s="11">
+        <v>2</v>
+      </c>
+      <c r="G45" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H45" s="11">
+        <v>30</v>
+      </c>
+      <c r="I45" s="12">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="13">
+        <v>200</v>
+      </c>
+      <c r="C46" s="13">
+        <v>150</v>
+      </c>
+      <c r="D46" s="13">
+        <v>425</v>
+      </c>
+      <c r="E46" s="13">
         <v>45</v>
-      </c>
-      <c r="F44" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G44" s="13">
-        <v>1750</v>
-      </c>
-      <c r="H44" s="13">
-        <v>80</v>
-      </c>
-      <c r="I44" s="14">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="13">
-        <v>120</v>
-      </c>
-      <c r="C45" s="13">
-        <v>170</v>
-      </c>
-      <c r="D45" s="13">
-        <v>600</v>
-      </c>
-      <c r="E45" s="13">
-        <v>50</v>
-      </c>
-      <c r="F45" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G45" s="13">
-        <v>1800</v>
-      </c>
-      <c r="H45" s="13">
-        <v>90</v>
-      </c>
-      <c r="I45" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13">
-        <v>125</v>
-      </c>
-      <c r="C46" s="13">
-        <v>170</v>
-      </c>
-      <c r="D46" s="13">
-        <v>650</v>
-      </c>
-      <c r="E46" s="13">
-        <v>55</v>
       </c>
       <c r="F46" s="13">
         <v>2</v>
       </c>
       <c r="G46" s="13">
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="H46" s="13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I46" s="14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="13">
+        <v>205</v>
+      </c>
+      <c r="C47" s="13">
+        <v>150</v>
+      </c>
+      <c r="D47" s="13">
+        <v>450</v>
+      </c>
+      <c r="E47" s="13">
+        <v>50</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1550</v>
+      </c>
+      <c r="H47" s="13">
+        <v>60</v>
+      </c>
+      <c r="I47" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="13">
+        <v>210</v>
+      </c>
+      <c r="C48" s="13">
+        <v>150</v>
+      </c>
+      <c r="D48" s="13">
+        <v>500</v>
+      </c>
+      <c r="E48" s="13">
+        <v>55</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H48" s="13">
+        <v>70</v>
+      </c>
+      <c r="I48" s="14">
         <v>2.25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="13">
+        <v>215</v>
+      </c>
+      <c r="C49" s="13">
+        <v>150</v>
+      </c>
+      <c r="D49" s="13">
+        <v>550</v>
+      </c>
+      <c r="E49" s="13">
+        <v>60</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1650</v>
+      </c>
+      <c r="H49" s="13">
+        <v>80</v>
+      </c>
+      <c r="I49" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="15">
+        <v>220</v>
+      </c>
+      <c r="C50" s="15">
+        <v>150</v>
+      </c>
+      <c r="D50" s="15">
+        <v>600</v>
+      </c>
+      <c r="E50" s="15">
+        <v>65</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1700</v>
+      </c>
+      <c r="H50" s="15">
+        <v>90</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="11">
+        <v>115</v>
+      </c>
+      <c r="C52" s="11">
+        <v>170</v>
+      </c>
+      <c r="D52" s="11">
+        <v>550</v>
+      </c>
+      <c r="E52" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="13">
-        <v>130</v>
-      </c>
-      <c r="C47" s="13">
-        <v>170</v>
-      </c>
-      <c r="D47" s="13">
-        <v>700</v>
-      </c>
-      <c r="E47" s="13">
-        <v>60</v>
-      </c>
-      <c r="F47" s="13">
-        <v>1.75</v>
-      </c>
-      <c r="G47" s="13">
-        <v>1900</v>
-      </c>
-      <c r="H47" s="13">
-        <v>110</v>
-      </c>
-      <c r="I47" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="15">
-        <v>135</v>
-      </c>
-      <c r="C48" s="15">
-        <v>170</v>
-      </c>
-      <c r="D48" s="15">
-        <v>750</v>
-      </c>
-      <c r="E48" s="15">
-        <v>65</v>
-      </c>
-      <c r="F48" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G48" s="15">
-        <v>1950</v>
-      </c>
-      <c r="H48" s="15">
-        <v>120</v>
-      </c>
-      <c r="I48" s="16">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="11">
-        <v>115</v>
-      </c>
-      <c r="C50" s="11">
-        <v>170</v>
-      </c>
-      <c r="D50" s="11">
-        <v>550</v>
-      </c>
-      <c r="E50" s="11">
-        <v>45</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="F52" s="11">
         <v>2.5</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G52" s="11">
         <v>3000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H52" s="11">
         <v>80</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I52" s="12">
         <v>2.65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="13">
-        <v>115</v>
-      </c>
-      <c r="C51" s="13">
-        <v>170</v>
-      </c>
-      <c r="D51" s="13">
-        <v>550</v>
-      </c>
-      <c r="E51" s="13">
-        <v>45</v>
-      </c>
-      <c r="F51" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G51" s="13">
-        <v>2000</v>
-      </c>
-      <c r="H51" s="13">
-        <v>80</v>
-      </c>
-      <c r="I51" s="14">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="13">
-        <v>120</v>
-      </c>
-      <c r="C52" s="13">
-        <v>170</v>
-      </c>
-      <c r="D52" s="13">
-        <v>600</v>
-      </c>
-      <c r="E52" s="13">
-        <v>50</v>
-      </c>
-      <c r="F52" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G52" s="13">
-        <v>2050</v>
-      </c>
-      <c r="H52" s="13">
-        <v>90</v>
-      </c>
-      <c r="I52" s="14">
-        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B53" s="13">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C53" s="13">
         <v>170</v>
       </c>
       <c r="D53" s="13">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E53" s="13">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F53" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G53" s="13">
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="H53" s="13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I53" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B54" s="13">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C54" s="13">
         <v>170</v>
       </c>
       <c r="D54" s="13">
+        <v>600</v>
+      </c>
+      <c r="E54" s="13">
+        <v>50</v>
+      </c>
+      <c r="F54" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G54" s="13">
+        <v>1800</v>
+      </c>
+      <c r="H54" s="13">
+        <v>90</v>
+      </c>
+      <c r="I54" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="13">
+        <v>125</v>
+      </c>
+      <c r="C55" s="13">
+        <v>170</v>
+      </c>
+      <c r="D55" s="13">
+        <v>650</v>
+      </c>
+      <c r="E55" s="13">
+        <v>55</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1850</v>
+      </c>
+      <c r="H55" s="13">
+        <v>100</v>
+      </c>
+      <c r="I55" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="13">
+        <v>130</v>
+      </c>
+      <c r="C56" s="13">
+        <v>170</v>
+      </c>
+      <c r="D56" s="13">
         <v>700</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E56" s="13">
         <v>60</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F56" s="13">
         <v>1.75</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G56" s="13">
+        <v>1900</v>
+      </c>
+      <c r="H56" s="13">
+        <v>110</v>
+      </c>
+      <c r="I56" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="15">
+        <v>135</v>
+      </c>
+      <c r="C57" s="15">
+        <v>170</v>
+      </c>
+      <c r="D57" s="15">
+        <v>750</v>
+      </c>
+      <c r="E57" s="15">
+        <v>65</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G57" s="15">
+        <v>1950</v>
+      </c>
+      <c r="H57" s="15">
+        <v>120</v>
+      </c>
+      <c r="I57" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="11">
+        <v>115</v>
+      </c>
+      <c r="C59" s="11">
+        <v>170</v>
+      </c>
+      <c r="D59" s="11">
+        <v>550</v>
+      </c>
+      <c r="E59" s="11">
+        <v>45</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G59" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H59" s="11">
+        <v>80</v>
+      </c>
+      <c r="I59" s="12">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="13">
+        <v>115</v>
+      </c>
+      <c r="C60" s="13">
+        <v>170</v>
+      </c>
+      <c r="D60" s="13">
+        <v>550</v>
+      </c>
+      <c r="E60" s="13">
+        <v>45</v>
+      </c>
+      <c r="F60" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G60" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="13">
+        <v>80</v>
+      </c>
+      <c r="I60" s="14">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="13">
+        <v>120</v>
+      </c>
+      <c r="C61" s="13">
+        <v>170</v>
+      </c>
+      <c r="D61" s="13">
+        <v>600</v>
+      </c>
+      <c r="E61" s="13">
+        <v>50</v>
+      </c>
+      <c r="F61" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G61" s="13">
+        <v>2050</v>
+      </c>
+      <c r="H61" s="13">
+        <v>90</v>
+      </c>
+      <c r="I61" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="13">
+        <v>125</v>
+      </c>
+      <c r="C62" s="13">
+        <v>170</v>
+      </c>
+      <c r="D62" s="13">
+        <v>650</v>
+      </c>
+      <c r="E62" s="13">
+        <v>55</v>
+      </c>
+      <c r="F62" s="13">
+        <v>2</v>
+      </c>
+      <c r="G62" s="13">
+        <v>2100</v>
+      </c>
+      <c r="H62" s="13">
+        <v>100</v>
+      </c>
+      <c r="I62" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="13">
+        <v>130</v>
+      </c>
+      <c r="C63" s="13">
+        <v>170</v>
+      </c>
+      <c r="D63" s="13">
+        <v>700</v>
+      </c>
+      <c r="E63" s="13">
+        <v>60</v>
+      </c>
+      <c r="F63" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="G63" s="13">
         <v>2150</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H63" s="13">
         <v>110</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I63" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B64" s="15">
         <v>135</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C64" s="15">
         <v>170</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D64" s="15">
         <v>750</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E64" s="15">
         <v>65</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F64" s="15">
         <v>1.5</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G64" s="15">
         <v>2200</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H64" s="15">
         <v>120</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I64" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="11">
-        <v>115</v>
-      </c>
-      <c r="C57" s="11">
-        <v>276</v>
-      </c>
-      <c r="D57" s="11">
-        <v>1253</v>
-      </c>
-      <c r="E57" s="11">
-        <v>94</v>
-      </c>
-      <c r="F57" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="G57" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H57" s="11">
-        <v>200</v>
-      </c>
-      <c r="I57" s="12">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="13">
-        <v>115</v>
-      </c>
-      <c r="C58" s="13">
-        <v>276</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1253</v>
-      </c>
-      <c r="E58" s="13">
-        <v>94</v>
-      </c>
-      <c r="F58" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G58" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H58" s="13">
-        <v>120</v>
-      </c>
-      <c r="I58" s="14">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="13">
-        <v>120</v>
-      </c>
-      <c r="C59" s="13">
-        <v>276</v>
-      </c>
-      <c r="D59" s="13">
-        <v>1400</v>
-      </c>
-      <c r="E59" s="13">
-        <v>100</v>
-      </c>
-      <c r="F59" s="13">
-        <v>1.45</v>
-      </c>
-      <c r="G59" s="13">
-        <v>1550</v>
-      </c>
-      <c r="H59" s="13">
-        <v>140</v>
-      </c>
-      <c r="I59" s="14">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="13">
-        <v>125</v>
-      </c>
-      <c r="C60" s="13">
-        <v>276</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1500</v>
-      </c>
-      <c r="E60" s="13">
-        <v>105</v>
-      </c>
-      <c r="F60" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="G60" s="13">
-        <v>1600</v>
-      </c>
-      <c r="H60" s="13">
-        <v>160</v>
-      </c>
-      <c r="I60" s="14">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="13">
-        <v>130</v>
-      </c>
-      <c r="C61" s="13">
-        <v>276</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E61" s="13">
-        <v>110</v>
-      </c>
-      <c r="F61" s="13">
-        <v>1.35</v>
-      </c>
-      <c r="G61" s="13">
-        <v>1650</v>
-      </c>
-      <c r="H61" s="13">
-        <v>180</v>
-      </c>
-      <c r="I61" s="14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="15">
-        <v>135</v>
-      </c>
-      <c r="C62" s="15">
-        <v>276</v>
-      </c>
-      <c r="D62" s="15">
-        <v>1700</v>
-      </c>
-      <c r="E62" s="15">
-        <v>115</v>
-      </c>
-      <c r="F62" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="G62" s="15">
-        <v>1700</v>
-      </c>
-      <c r="H62" s="15">
-        <v>200</v>
-      </c>
-      <c r="I62" s="16">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="11">
-        <v>135</v>
-      </c>
-      <c r="C64" s="11">
-        <v>276</v>
-      </c>
-      <c r="D64" s="11">
-        <v>1546</v>
-      </c>
-      <c r="E64" s="11">
-        <v>94</v>
-      </c>
-      <c r="F64" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="G64" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H64" s="11">
-        <v>200</v>
-      </c>
-      <c r="I64" s="12">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="13">
-        <v>135</v>
-      </c>
-      <c r="C65" s="13">
-        <v>276</v>
-      </c>
-      <c r="D65" s="13">
-        <v>1546</v>
-      </c>
-      <c r="E65" s="13">
-        <v>94</v>
-      </c>
-      <c r="F65" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G65" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H65" s="13">
-        <v>120</v>
-      </c>
-      <c r="I65" s="14">
-        <v>1.35</v>
-      </c>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="13">
-        <v>140</v>
-      </c>
-      <c r="C66" s="13">
+        <v>53</v>
+      </c>
+      <c r="B66" s="11">
+        <v>115</v>
+      </c>
+      <c r="C66" s="11">
         <v>276</v>
       </c>
-      <c r="D66" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E66" s="13">
-        <v>100</v>
-      </c>
-      <c r="F66" s="13">
-        <v>1.45</v>
-      </c>
-      <c r="G66" s="13">
-        <v>1550</v>
-      </c>
-      <c r="H66" s="13">
-        <v>140</v>
-      </c>
-      <c r="I66" s="14">
-        <v>1.3</v>
+      <c r="D66" s="11">
+        <v>1253</v>
+      </c>
+      <c r="E66" s="11">
+        <v>94</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G66" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H66" s="11">
+        <v>200</v>
+      </c>
+      <c r="I66" s="12">
+        <v>1.35</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B67" s="13">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C67" s="13">
         <v>276</v>
       </c>
       <c r="D67" s="13">
-        <v>1700</v>
+        <v>1253</v>
       </c>
       <c r="E67" s="13">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F67" s="13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G67" s="13">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H67" s="13">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I67" s="14">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B68" s="13">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C68" s="13">
         <v>276</v>
       </c>
       <c r="D68" s="13">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E68" s="13">
+        <v>100</v>
+      </c>
+      <c r="F68" s="13">
+        <v>1.45</v>
+      </c>
+      <c r="G68" s="13">
+        <v>1550</v>
+      </c>
+      <c r="H68" s="13">
+        <v>140</v>
+      </c>
+      <c r="I68" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="13">
+        <v>125</v>
+      </c>
+      <c r="C69" s="13">
+        <v>276</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E69" s="13">
+        <v>105</v>
+      </c>
+      <c r="F69" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="G69" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H69" s="13">
+        <v>160</v>
+      </c>
+      <c r="I69" s="14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="13">
+        <v>130</v>
+      </c>
+      <c r="C70" s="13">
+        <v>276</v>
+      </c>
+      <c r="D70" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E70" s="13">
         <v>110</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F70" s="13">
         <v>1.35</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G70" s="13">
         <v>1650</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H70" s="13">
         <v>180</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I70" s="14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="15">
-        <v>155</v>
-      </c>
-      <c r="C69" s="15">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="15">
+        <v>135</v>
+      </c>
+      <c r="C71" s="15">
         <v>276</v>
       </c>
-      <c r="D69" s="15">
-        <v>1900</v>
-      </c>
-      <c r="E69" s="15">
+      <c r="D71" s="15">
+        <v>1700</v>
+      </c>
+      <c r="E71" s="15">
         <v>115</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F71" s="15">
         <v>1.3</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G71" s="15">
         <v>1700</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H71" s="15">
         <v>200</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I71" s="16">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="11">
-        <v>125</v>
-      </c>
-      <c r="C71" s="11">
-        <v>289</v>
-      </c>
-      <c r="D71" s="11">
-        <v>1950</v>
-      </c>
-      <c r="E71" s="11">
-        <v>94</v>
-      </c>
-      <c r="F71" s="11">
-        <v>1</v>
-      </c>
-      <c r="G71" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H71" s="11">
-        <v>200</v>
-      </c>
-      <c r="I71" s="12">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="13">
-        <v>125</v>
-      </c>
-      <c r="C72" s="13">
-        <v>289</v>
-      </c>
-      <c r="D72" s="13">
-        <v>1950</v>
-      </c>
-      <c r="E72" s="13">
-        <v>94</v>
-      </c>
-      <c r="F72" s="13">
-        <v>1</v>
-      </c>
-      <c r="G72" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H72" s="13">
-        <v>120</v>
-      </c>
-      <c r="I72" s="14">
-        <v>1.35</v>
-      </c>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="13">
-        <v>130</v>
-      </c>
-      <c r="C73" s="13">
-        <v>289</v>
-      </c>
-      <c r="D73" s="13">
+        <v>59</v>
+      </c>
+      <c r="B73" s="11">
+        <v>135</v>
+      </c>
+      <c r="C73" s="11">
+        <v>276</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1546</v>
+      </c>
+      <c r="E73" s="11">
+        <v>94</v>
+      </c>
+      <c r="F73" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G73" s="11">
         <v>2000</v>
       </c>
-      <c r="E73" s="13">
-        <v>100</v>
-      </c>
-      <c r="F73" s="13">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13">
-        <v>1550</v>
-      </c>
-      <c r="H73" s="13">
-        <v>140</v>
-      </c>
-      <c r="I73" s="14">
-        <v>1.3</v>
+      <c r="H73" s="11">
+        <v>200</v>
+      </c>
+      <c r="I73" s="12">
+        <v>1.35</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B74" s="13">
         <v>135</v>
       </c>
       <c r="C74" s="13">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D74" s="13">
-        <v>2100</v>
+        <v>1546</v>
       </c>
       <c r="E74" s="13">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F74" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G74" s="13">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H74" s="13">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I74" s="14">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B75" s="13">
         <v>140</v>
       </c>
       <c r="C75" s="13">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D75" s="13">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="E75" s="13">
+        <v>100</v>
+      </c>
+      <c r="F75" s="13">
+        <v>1.45</v>
+      </c>
+      <c r="G75" s="13">
+        <v>1550</v>
+      </c>
+      <c r="H75" s="13">
+        <v>140</v>
+      </c>
+      <c r="I75" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="13">
+        <v>145</v>
+      </c>
+      <c r="C76" s="13">
+        <v>276</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="13">
+        <v>105</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="G76" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H76" s="13">
+        <v>160</v>
+      </c>
+      <c r="I76" s="14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="13">
+        <v>150</v>
+      </c>
+      <c r="C77" s="13">
+        <v>276</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E77" s="13">
         <v>110</v>
       </c>
-      <c r="F75" s="13">
-        <v>1</v>
-      </c>
-      <c r="G75" s="13">
+      <c r="F77" s="13">
+        <v>1.35</v>
+      </c>
+      <c r="G77" s="13">
         <v>1650</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H77" s="13">
         <v>180</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I77" s="14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="15">
-        <v>145</v>
-      </c>
-      <c r="C76" s="15">
-        <v>289</v>
-      </c>
-      <c r="D76" s="15">
-        <v>2300</v>
-      </c>
-      <c r="E76" s="15">
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="15">
+        <v>155</v>
+      </c>
+      <c r="C78" s="15">
+        <v>276</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1900</v>
+      </c>
+      <c r="E78" s="15">
         <v>115</v>
       </c>
-      <c r="F76" s="15">
-        <v>1</v>
-      </c>
-      <c r="G76" s="15">
+      <c r="F78" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="G78" s="15">
         <v>1700</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H78" s="15">
         <v>200</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I78" s="16">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="11">
-        <v>80</v>
-      </c>
-      <c r="C78" s="11">
-        <v>206</v>
-      </c>
-      <c r="D78" s="11">
-        <v>1180</v>
-      </c>
-      <c r="E78" s="11">
-        <v>50</v>
-      </c>
-      <c r="F78" s="11">
-        <v>2</v>
-      </c>
-      <c r="G78" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H78" s="11">
-        <v>100</v>
-      </c>
-      <c r="I78" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="13">
-        <v>80</v>
-      </c>
-      <c r="C79" s="13">
-        <v>206</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1180</v>
-      </c>
-      <c r="E79" s="13">
-        <v>94</v>
-      </c>
-      <c r="F79" s="13">
-        <v>2</v>
-      </c>
-      <c r="G79" s="13">
-        <v>2000</v>
-      </c>
-      <c r="H79" s="13">
-        <v>60</v>
-      </c>
-      <c r="I79" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="13">
-        <v>85</v>
-      </c>
-      <c r="C80" s="13">
-        <v>206</v>
-      </c>
-      <c r="D80" s="13">
-        <v>1250</v>
-      </c>
-      <c r="E80" s="13">
-        <v>100</v>
-      </c>
-      <c r="F80" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G80" s="13">
-        <v>2050</v>
-      </c>
-      <c r="H80" s="13">
-        <v>70</v>
-      </c>
-      <c r="I80" s="14">
-        <v>2.5</v>
+        <v>65</v>
+      </c>
+      <c r="B80" s="11">
+        <v>125</v>
+      </c>
+      <c r="C80" s="11">
+        <v>289</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1950</v>
+      </c>
+      <c r="E80" s="11">
+        <v>94</v>
+      </c>
+      <c r="F80" s="11">
+        <v>1</v>
+      </c>
+      <c r="G80" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H80" s="11">
+        <v>200</v>
+      </c>
+      <c r="I80" s="12">
+        <v>1.35</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B81" s="13">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C81" s="13">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="D81" s="13">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="E81" s="13">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F81" s="13">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G81" s="13">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="H81" s="13">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I81" s="14">
-        <v>2.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B82" s="13">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C82" s="13">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="D82" s="13">
-        <v>1450</v>
+        <v>2000</v>
       </c>
       <c r="E82" s="13">
+        <v>100</v>
+      </c>
+      <c r="F82" s="13">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13">
+        <v>1550</v>
+      </c>
+      <c r="H82" s="13">
+        <v>140</v>
+      </c>
+      <c r="I82" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="13">
+        <v>135</v>
+      </c>
+      <c r="C83" s="13">
+        <v>289</v>
+      </c>
+      <c r="D83" s="13">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="13">
+        <v>105</v>
+      </c>
+      <c r="F83" s="13">
+        <v>1</v>
+      </c>
+      <c r="G83" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="13">
+        <v>160</v>
+      </c>
+      <c r="I83" s="14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="13">
+        <v>140</v>
+      </c>
+      <c r="C84" s="13">
+        <v>289</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2200</v>
+      </c>
+      <c r="E84" s="13">
         <v>110</v>
       </c>
-      <c r="F82" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="G82" s="13">
-        <v>2150</v>
-      </c>
-      <c r="H82" s="13">
-        <v>90</v>
-      </c>
-      <c r="I82" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="15">
-        <v>100</v>
-      </c>
-      <c r="C83" s="15">
-        <v>206</v>
-      </c>
-      <c r="D83" s="15">
-        <v>1550</v>
-      </c>
-      <c r="E83" s="15">
+      <c r="F84" s="13">
+        <v>1</v>
+      </c>
+      <c r="G84" s="13">
+        <v>1650</v>
+      </c>
+      <c r="H84" s="13">
+        <v>180</v>
+      </c>
+      <c r="I84" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="15">
+        <v>145</v>
+      </c>
+      <c r="C85" s="15">
+        <v>289</v>
+      </c>
+      <c r="D85" s="15">
+        <v>2300</v>
+      </c>
+      <c r="E85" s="15">
         <v>115</v>
       </c>
-      <c r="F83" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="G83" s="15">
-        <v>2200</v>
-      </c>
-      <c r="H83" s="15">
-        <v>100</v>
-      </c>
-      <c r="I83" s="16">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="11">
-        <v>80</v>
-      </c>
-      <c r="C85" s="11">
-        <v>206</v>
-      </c>
-      <c r="D85" s="11">
-        <v>1180</v>
-      </c>
-      <c r="E85" s="11">
-        <v>50</v>
-      </c>
-      <c r="F85" s="11">
-        <v>2</v>
-      </c>
-      <c r="G85" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H85" s="11">
-        <v>100</v>
-      </c>
-      <c r="I85" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="13">
-        <v>80</v>
-      </c>
-      <c r="C86" s="13">
-        <v>206</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1180</v>
-      </c>
-      <c r="E86" s="13">
-        <v>94</v>
-      </c>
-      <c r="F86" s="13">
-        <v>2</v>
-      </c>
-      <c r="G86" s="13">
-        <v>2250</v>
-      </c>
-      <c r="H86" s="13">
-        <v>60</v>
-      </c>
-      <c r="I86" s="14">
-        <v>2.65</v>
-      </c>
+      <c r="F85" s="15">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15">
+        <v>1700</v>
+      </c>
+      <c r="H85" s="15">
+        <v>200</v>
+      </c>
+      <c r="I85" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="11">
         <v>80</v>
       </c>
-      <c r="B87" s="13">
-        <v>85</v>
-      </c>
-      <c r="C87" s="13">
+      <c r="C87" s="11">
         <v>206</v>
       </c>
-      <c r="D87" s="13">
-        <v>1250</v>
-      </c>
-      <c r="E87" s="13">
+      <c r="D87" s="11">
+        <v>1180</v>
+      </c>
+      <c r="E87" s="11">
+        <v>50</v>
+      </c>
+      <c r="F87" s="11">
+        <v>2</v>
+      </c>
+      <c r="G87" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H87" s="11">
         <v>100</v>
       </c>
-      <c r="F87" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G87" s="13">
-        <v>2300</v>
-      </c>
-      <c r="H87" s="13">
-        <v>70</v>
-      </c>
-      <c r="I87" s="14">
-        <v>2.5</v>
+      <c r="I87" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B88" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C88" s="13">
         <v>206</v>
       </c>
       <c r="D88" s="13">
-        <v>1350</v>
+        <v>1180</v>
       </c>
       <c r="E88" s="13">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F88" s="13">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G88" s="13">
-        <v>2350</v>
+        <v>2000</v>
       </c>
       <c r="H88" s="13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I88" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B89" s="13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C89" s="13">
         <v>206</v>
       </c>
       <c r="D89" s="13">
+        <v>1250</v>
+      </c>
+      <c r="E89" s="13">
+        <v>100</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="G89" s="13">
+        <v>2050</v>
+      </c>
+      <c r="H89" s="13">
+        <v>70</v>
+      </c>
+      <c r="I89" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="13">
+        <v>90</v>
+      </c>
+      <c r="C90" s="13">
+        <v>206</v>
+      </c>
+      <c r="D90" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E90" s="13">
+        <v>105</v>
+      </c>
+      <c r="F90" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G90" s="13">
+        <v>2100</v>
+      </c>
+      <c r="H90" s="13">
+        <v>80</v>
+      </c>
+      <c r="I90" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="13">
+        <v>95</v>
+      </c>
+      <c r="C91" s="13">
+        <v>206</v>
+      </c>
+      <c r="D91" s="13">
         <v>1450</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E91" s="13">
         <v>110</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F91" s="13">
         <v>1.4</v>
       </c>
-      <c r="G89" s="13">
-        <v>2400</v>
-      </c>
-      <c r="H89" s="13">
+      <c r="G91" s="13">
+        <v>2150</v>
+      </c>
+      <c r="H91" s="13">
         <v>90</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I91" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B90" s="15">
+    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="15">
         <v>100</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C92" s="15">
         <v>206</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D92" s="15">
         <v>1550</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E92" s="15">
         <v>115</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F92" s="15">
         <v>1.2</v>
       </c>
-      <c r="G90" s="15">
-        <v>2450</v>
-      </c>
-      <c r="H90" s="15">
+      <c r="G92" s="15">
+        <v>2200</v>
+      </c>
+      <c r="H92" s="15">
         <v>100</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I92" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="11">
-        <v>80</v>
-      </c>
-      <c r="C92" s="11">
-        <v>206</v>
-      </c>
-      <c r="D92" s="11">
-        <v>1180</v>
-      </c>
-      <c r="E92" s="11">
-        <v>50</v>
-      </c>
-      <c r="F92" s="11">
-        <v>2</v>
-      </c>
-      <c r="G92" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H92" s="11">
-        <v>100</v>
-      </c>
-      <c r="I92" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="13">
-        <v>80</v>
-      </c>
-      <c r="C93" s="13">
-        <v>206</v>
-      </c>
-      <c r="D93" s="13">
-        <v>1180</v>
-      </c>
-      <c r="E93" s="13">
-        <v>94</v>
-      </c>
-      <c r="F93" s="13">
-        <v>2</v>
-      </c>
-      <c r="G93" s="13">
-        <v>2500</v>
-      </c>
-      <c r="H93" s="13">
-        <v>60</v>
-      </c>
-      <c r="I93" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="13">
-        <v>85</v>
-      </c>
-      <c r="C94" s="13">
+        <v>77</v>
+      </c>
+      <c r="B94" s="11">
+        <v>80</v>
+      </c>
+      <c r="C94" s="11">
         <v>206</v>
       </c>
-      <c r="D94" s="13">
-        <v>1250</v>
-      </c>
-      <c r="E94" s="13">
+      <c r="D94" s="11">
+        <v>1180</v>
+      </c>
+      <c r="E94" s="11">
+        <v>50</v>
+      </c>
+      <c r="F94" s="11">
+        <v>2</v>
+      </c>
+      <c r="G94" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H94" s="11">
         <v>100</v>
       </c>
-      <c r="F94" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G94" s="13">
-        <v>2550</v>
-      </c>
-      <c r="H94" s="13">
-        <v>70</v>
-      </c>
-      <c r="I94" s="14">
-        <v>2.5</v>
+      <c r="I94" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B95" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C95" s="13">
         <v>206</v>
       </c>
       <c r="D95" s="13">
-        <v>1350</v>
+        <v>1180</v>
       </c>
       <c r="E95" s="13">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F95" s="13">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G95" s="13">
-        <v>2600</v>
+        <v>2250</v>
       </c>
       <c r="H95" s="13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I95" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B96" s="13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C96" s="13">
         <v>206</v>
       </c>
       <c r="D96" s="13">
+        <v>1250</v>
+      </c>
+      <c r="E96" s="13">
+        <v>100</v>
+      </c>
+      <c r="F96" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="G96" s="13">
+        <v>2300</v>
+      </c>
+      <c r="H96" s="13">
+        <v>70</v>
+      </c>
+      <c r="I96" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="13">
+        <v>90</v>
+      </c>
+      <c r="C97" s="13">
+        <v>206</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E97" s="13">
+        <v>105</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G97" s="13">
+        <v>2350</v>
+      </c>
+      <c r="H97" s="13">
+        <v>80</v>
+      </c>
+      <c r="I97" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="13">
+        <v>95</v>
+      </c>
+      <c r="C98" s="13">
+        <v>206</v>
+      </c>
+      <c r="D98" s="13">
         <v>1450</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E98" s="13">
         <v>110</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F98" s="13">
         <v>1.4</v>
       </c>
-      <c r="G96" s="13">
-        <v>2650</v>
-      </c>
-      <c r="H96" s="13">
+      <c r="G98" s="13">
+        <v>2400</v>
+      </c>
+      <c r="H98" s="13">
         <v>90</v>
       </c>
-      <c r="I96" s="14">
+      <c r="I98" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="15">
+    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="15">
         <v>100</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C99" s="15">
         <v>206</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D99" s="15">
         <v>1550</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E99" s="15">
         <v>115</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F99" s="15">
         <v>1.2</v>
       </c>
-      <c r="G97" s="15">
-        <v>2700</v>
-      </c>
-      <c r="H97" s="15">
+      <c r="G99" s="15">
+        <v>2450</v>
+      </c>
+      <c r="H99" s="15">
         <v>100</v>
       </c>
-      <c r="I97" s="16">
+      <c r="I99" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="10"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="11">
-        <v>90</v>
-      </c>
-      <c r="C99" s="11">
-        <v>180</v>
-      </c>
-      <c r="D99" s="11">
-        <v>1520</v>
-      </c>
-      <c r="E99" s="11">
-        <v>250</v>
-      </c>
-      <c r="F99" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="G99" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H99" s="11">
-        <v>200</v>
-      </c>
-      <c r="I99" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="13">
-        <v>90</v>
-      </c>
-      <c r="C100" s="13">
-        <v>180</v>
-      </c>
-      <c r="D100" s="13">
-        <v>1520</v>
-      </c>
-      <c r="E100" s="13">
-        <v>250</v>
-      </c>
-      <c r="F100" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G100" s="13">
-        <v>2250</v>
-      </c>
-      <c r="H100" s="13">
-        <v>100</v>
-      </c>
-      <c r="I100" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="13">
-        <v>95</v>
-      </c>
-      <c r="C101" s="13">
-        <v>180</v>
-      </c>
-      <c r="D101" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E101" s="13">
-        <v>255</v>
-      </c>
-      <c r="F101" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="G101" s="13">
-        <v>2300</v>
-      </c>
-      <c r="H101" s="13">
-        <v>120</v>
-      </c>
-      <c r="I101" s="14">
-        <v>2.5</v>
+        <v>83</v>
+      </c>
+      <c r="B101" s="11">
+        <v>80</v>
+      </c>
+      <c r="C101" s="11">
+        <v>206</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1180</v>
+      </c>
+      <c r="E101" s="11">
+        <v>50</v>
+      </c>
+      <c r="F101" s="11">
+        <v>2</v>
+      </c>
+      <c r="G101" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H101" s="11">
+        <v>100</v>
+      </c>
+      <c r="I101" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B102" s="13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C102" s="13">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="D102" s="13">
-        <v>1700</v>
+        <v>1180</v>
       </c>
       <c r="E102" s="13">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="F102" s="13">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G102" s="13">
-        <v>2350</v>
+        <v>2500</v>
       </c>
       <c r="H102" s="13">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I102" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B103" s="13">
+        <v>85</v>
+      </c>
+      <c r="C103" s="13">
+        <v>206</v>
+      </c>
+      <c r="D103" s="13">
+        <v>1250</v>
+      </c>
+      <c r="E103" s="13">
+        <v>100</v>
+      </c>
+      <c r="F103" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="G103" s="13">
+        <v>2550</v>
+      </c>
+      <c r="H103" s="13">
+        <v>70</v>
+      </c>
+      <c r="I103" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="13">
+        <v>90</v>
+      </c>
+      <c r="C104" s="13">
+        <v>206</v>
+      </c>
+      <c r="D104" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E104" s="13">
         <v>105</v>
       </c>
-      <c r="C103" s="13">
-        <v>180</v>
-      </c>
-      <c r="D103" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E103" s="13">
-        <v>265</v>
-      </c>
-      <c r="F103" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G103" s="13">
-        <v>2400</v>
-      </c>
-      <c r="H103" s="13">
-        <v>160</v>
-      </c>
-      <c r="I103" s="14">
+      <c r="F104" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G104" s="13">
+        <v>2600</v>
+      </c>
+      <c r="H104" s="13">
+        <v>80</v>
+      </c>
+      <c r="I104" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="13">
+        <v>95</v>
+      </c>
+      <c r="C105" s="13">
+        <v>206</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E105" s="13">
+        <v>110</v>
+      </c>
+      <c r="F105" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="G105" s="13">
+        <v>2650</v>
+      </c>
+      <c r="H105" s="13">
+        <v>90</v>
+      </c>
+      <c r="I105" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B104" s="15">
-        <v>110</v>
-      </c>
-      <c r="C104" s="15">
-        <v>180</v>
-      </c>
-      <c r="D104" s="15">
-        <v>1900</v>
-      </c>
-      <c r="E104" s="15">
-        <v>270</v>
-      </c>
-      <c r="F104" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="G104" s="15">
-        <v>2450</v>
-      </c>
-      <c r="H104" s="15">
-        <v>180</v>
-      </c>
-      <c r="I104" s="16">
+    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="15">
+        <v>100</v>
+      </c>
+      <c r="C106" s="15">
+        <v>206</v>
+      </c>
+      <c r="D106" s="15">
+        <v>1550</v>
+      </c>
+      <c r="E106" s="15">
+        <v>115</v>
+      </c>
+      <c r="F106" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="G106" s="15">
+        <v>2700</v>
+      </c>
+      <c r="H106" s="15">
+        <v>100</v>
+      </c>
+      <c r="I106" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="11">
-        <v>90</v>
-      </c>
-      <c r="C106" s="11">
-        <v>180</v>
-      </c>
-      <c r="D106" s="11">
-        <v>1520</v>
-      </c>
-      <c r="E106" s="11">
-        <v>250</v>
-      </c>
-      <c r="F106" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="G106" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H106" s="11">
-        <v>200</v>
-      </c>
-      <c r="I106" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="13">
-        <v>90</v>
-      </c>
-      <c r="C107" s="13">
-        <v>180</v>
-      </c>
-      <c r="D107" s="13">
-        <v>1520</v>
-      </c>
-      <c r="E107" s="13">
-        <v>250</v>
-      </c>
-      <c r="F107" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G107" s="13">
-        <v>2500</v>
-      </c>
-      <c r="H107" s="13">
-        <v>100</v>
-      </c>
-      <c r="I107" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="13">
-        <v>95</v>
-      </c>
-      <c r="C108" s="13">
+        <v>89</v>
+      </c>
+      <c r="B108" s="11">
+        <v>90</v>
+      </c>
+      <c r="C108" s="11">
         <v>180</v>
       </c>
-      <c r="D108" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E108" s="13">
-        <v>255</v>
-      </c>
-      <c r="F108" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="G108" s="13">
-        <v>2550</v>
-      </c>
-      <c r="H108" s="13">
-        <v>120</v>
-      </c>
-      <c r="I108" s="14">
-        <v>2.5</v>
+      <c r="D108" s="11">
+        <v>1520</v>
+      </c>
+      <c r="E108" s="11">
+        <v>250</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G108" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H108" s="11">
+        <v>200</v>
+      </c>
+      <c r="I108" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B109" s="13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C109" s="13">
         <v>180</v>
       </c>
       <c r="D109" s="13">
-        <v>1700</v>
+        <v>1520</v>
       </c>
       <c r="E109" s="13">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F109" s="13">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G109" s="13">
-        <v>2600</v>
+        <v>2250</v>
       </c>
       <c r="H109" s="13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I109" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B110" s="13">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C110" s="13">
         <v>180</v>
       </c>
       <c r="D110" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E110" s="13">
+        <v>255</v>
+      </c>
+      <c r="F110" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="G110" s="13">
+        <v>2300</v>
+      </c>
+      <c r="H110" s="13">
+        <v>120</v>
+      </c>
+      <c r="I110" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" s="13">
+        <v>100</v>
+      </c>
+      <c r="C111" s="13">
+        <v>180</v>
+      </c>
+      <c r="D111" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E111" s="13">
+        <v>260</v>
+      </c>
+      <c r="F111" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G111" s="13">
+        <v>2350</v>
+      </c>
+      <c r="H111" s="13">
+        <v>140</v>
+      </c>
+      <c r="I111" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="13">
+        <v>105</v>
+      </c>
+      <c r="C112" s="13">
+        <v>180</v>
+      </c>
+      <c r="D112" s="13">
         <v>1800</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E112" s="13">
         <v>265</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F112" s="13">
         <v>1.5</v>
       </c>
-      <c r="G110" s="13">
-        <v>2650</v>
-      </c>
-      <c r="H110" s="13">
+      <c r="G112" s="13">
+        <v>2400</v>
+      </c>
+      <c r="H112" s="13">
         <v>160</v>
       </c>
-      <c r="I110" s="14">
+      <c r="I112" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B111" s="15">
+    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="15">
         <v>110</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C113" s="15">
         <v>180</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D113" s="15">
         <v>1900</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E113" s="15">
         <v>270</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F113" s="15">
         <v>1.4</v>
       </c>
-      <c r="G111" s="15">
-        <v>2700</v>
-      </c>
-      <c r="H111" s="15">
+      <c r="G113" s="15">
+        <v>2450</v>
+      </c>
+      <c r="H113" s="15">
         <v>180</v>
       </c>
-      <c r="I111" s="16">
+      <c r="I113" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" s="11">
-        <v>80</v>
-      </c>
-      <c r="C113" s="11">
-        <v>450</v>
-      </c>
-      <c r="D113" s="11">
-        <v>1450</v>
-      </c>
-      <c r="E113" s="11">
-        <v>245</v>
-      </c>
-      <c r="F113" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G113" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H113" s="11">
-        <v>200</v>
-      </c>
-      <c r="I113" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" s="13">
-        <v>80</v>
-      </c>
-      <c r="C114" s="13">
-        <v>450</v>
-      </c>
-      <c r="D114" s="13">
-        <v>1450</v>
-      </c>
-      <c r="E114" s="13">
-        <v>245</v>
-      </c>
-      <c r="F114" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G114" s="13">
-        <v>2250</v>
-      </c>
-      <c r="H114" s="13">
-        <v>100</v>
-      </c>
-      <c r="I114" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="13">
-        <v>85</v>
-      </c>
-      <c r="C115" s="13">
-        <v>450</v>
-      </c>
-      <c r="D115" s="13">
-        <v>1550</v>
-      </c>
-      <c r="E115" s="13">
+        <v>95</v>
+      </c>
+      <c r="B115" s="11">
+        <v>90</v>
+      </c>
+      <c r="C115" s="11">
+        <v>180</v>
+      </c>
+      <c r="D115" s="11">
+        <v>1520</v>
+      </c>
+      <c r="E115" s="11">
         <v>250</v>
       </c>
-      <c r="F115" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G115" s="13">
-        <v>2300</v>
-      </c>
-      <c r="H115" s="13">
-        <v>120</v>
-      </c>
-      <c r="I115" s="14">
-        <v>2.5</v>
+      <c r="F115" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G115" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H115" s="11">
+        <v>200</v>
+      </c>
+      <c r="I115" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B116" s="13">
         <v>90</v>
       </c>
       <c r="C116" s="13">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="D116" s="13">
-        <v>1650</v>
+        <v>1520</v>
       </c>
       <c r="E116" s="13">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F116" s="13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G116" s="13">
-        <v>2350</v>
+        <v>2500</v>
       </c>
       <c r="H116" s="13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I116" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B117" s="13">
         <v>95</v>
       </c>
       <c r="C117" s="13">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="D117" s="13">
-        <v>1750</v>
+        <v>1600</v>
       </c>
       <c r="E117" s="13">
+        <v>255</v>
+      </c>
+      <c r="F117" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="G117" s="13">
+        <v>2550</v>
+      </c>
+      <c r="H117" s="13">
+        <v>120</v>
+      </c>
+      <c r="I117" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="13">
+        <v>100</v>
+      </c>
+      <c r="C118" s="13">
+        <v>180</v>
+      </c>
+      <c r="D118" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E118" s="13">
         <v>260</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F118" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G118" s="13">
+        <v>2600</v>
+      </c>
+      <c r="H118" s="13">
+        <v>140</v>
+      </c>
+      <c r="I118" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="13">
+        <v>105</v>
+      </c>
+      <c r="C119" s="13">
+        <v>180</v>
+      </c>
+      <c r="D119" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E119" s="13">
+        <v>265</v>
+      </c>
+      <c r="F119" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G119" s="13">
+        <v>2650</v>
+      </c>
+      <c r="H119" s="13">
+        <v>160</v>
+      </c>
+      <c r="I119" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="15">
+        <v>110</v>
+      </c>
+      <c r="C120" s="15">
+        <v>180</v>
+      </c>
+      <c r="D120" s="15">
+        <v>1900</v>
+      </c>
+      <c r="E120" s="15">
+        <v>270</v>
+      </c>
+      <c r="F120" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="G120" s="15">
+        <v>2700</v>
+      </c>
+      <c r="H120" s="15">
+        <v>180</v>
+      </c>
+      <c r="I120" s="16">
         <v>1.75</v>
       </c>
-      <c r="G117" s="13">
-        <v>2400</v>
-      </c>
-      <c r="H117" s="13">
-        <v>160</v>
-      </c>
-      <c r="I117" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B118" s="15">
-        <v>100</v>
-      </c>
-      <c r="C118" s="15">
-        <v>450</v>
-      </c>
-      <c r="D118" s="15">
-        <v>1850</v>
-      </c>
-      <c r="E118" s="15">
-        <v>265</v>
-      </c>
-      <c r="F118" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G118" s="15">
-        <v>2450</v>
-      </c>
-      <c r="H118" s="15">
-        <v>180</v>
-      </c>
-      <c r="I118" s="16">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B120" s="11">
-        <v>80</v>
-      </c>
-      <c r="C120" s="11">
-        <v>450</v>
-      </c>
-      <c r="D120" s="11">
-        <v>1450</v>
-      </c>
-      <c r="E120" s="11">
-        <v>245</v>
-      </c>
-      <c r="F120" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G120" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H120" s="11">
-        <v>200</v>
-      </c>
-      <c r="I120" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" s="13">
-        <v>80</v>
-      </c>
-      <c r="C121" s="13">
-        <v>450</v>
-      </c>
-      <c r="D121" s="13">
-        <v>1450</v>
-      </c>
-      <c r="E121" s="13">
-        <v>245</v>
-      </c>
-      <c r="F121" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G121" s="13">
-        <v>2500</v>
-      </c>
-      <c r="H121" s="13">
-        <v>100</v>
-      </c>
-      <c r="I121" s="14">
-        <v>2.65</v>
-      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122" s="13">
-        <v>85</v>
-      </c>
-      <c r="C122" s="13">
+        <v>101</v>
+      </c>
+      <c r="B122" s="11">
+        <v>80</v>
+      </c>
+      <c r="C122" s="11">
         <v>450</v>
       </c>
-      <c r="D122" s="13">
+      <c r="D122" s="11">
         <v>1450</v>
       </c>
-      <c r="E122" s="13">
-        <v>250</v>
-      </c>
-      <c r="F122" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G122" s="13">
-        <v>2550</v>
-      </c>
-      <c r="H122" s="13">
-        <v>120</v>
-      </c>
-      <c r="I122" s="14">
+      <c r="E122" s="11">
+        <v>245</v>
+      </c>
+      <c r="F122" s="11">
         <v>2.5</v>
+      </c>
+      <c r="G122" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H122" s="11">
+        <v>200</v>
+      </c>
+      <c r="I122" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B123" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C123" s="13">
         <v>450</v>
@@ -4335,183 +4383,183 @@
         <v>1450</v>
       </c>
       <c r="E123" s="13">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F123" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G123" s="13">
-        <v>2600</v>
+        <v>2250</v>
       </c>
       <c r="H123" s="13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I123" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B124" s="13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C124" s="13">
         <v>450</v>
       </c>
       <c r="D124" s="13">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="E124" s="13">
+        <v>250</v>
+      </c>
+      <c r="F124" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G124" s="13">
+        <v>2300</v>
+      </c>
+      <c r="H124" s="13">
+        <v>120</v>
+      </c>
+      <c r="I124" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125" s="13">
+        <v>90</v>
+      </c>
+      <c r="C125" s="13">
+        <v>450</v>
+      </c>
+      <c r="D125" s="13">
+        <v>1650</v>
+      </c>
+      <c r="E125" s="13">
+        <v>255</v>
+      </c>
+      <c r="F125" s="13">
+        <v>2</v>
+      </c>
+      <c r="G125" s="13">
+        <v>2350</v>
+      </c>
+      <c r="H125" s="13">
+        <v>140</v>
+      </c>
+      <c r="I125" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126" s="13">
+        <v>95</v>
+      </c>
+      <c r="C126" s="13">
+        <v>450</v>
+      </c>
+      <c r="D126" s="13">
+        <v>1750</v>
+      </c>
+      <c r="E126" s="13">
         <v>260</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F126" s="13">
         <v>1.75</v>
       </c>
-      <c r="G124" s="13">
-        <v>2650</v>
-      </c>
-      <c r="H124" s="13">
+      <c r="G126" s="13">
+        <v>2400</v>
+      </c>
+      <c r="H126" s="13">
         <v>160</v>
       </c>
-      <c r="I124" s="14">
+      <c r="I126" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" s="15">
+    <row r="127" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="15">
         <v>100</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C127" s="15">
         <v>450</v>
       </c>
-      <c r="D125" s="15">
-        <v>1450</v>
-      </c>
-      <c r="E125" s="15">
+      <c r="D127" s="15">
+        <v>1850</v>
+      </c>
+      <c r="E127" s="15">
         <v>265</v>
       </c>
-      <c r="F125" s="15">
+      <c r="F127" s="15">
         <v>1.5</v>
       </c>
-      <c r="G125" s="15">
-        <v>2700</v>
-      </c>
-      <c r="H125" s="15">
+      <c r="G127" s="15">
+        <v>2450</v>
+      </c>
+      <c r="H127" s="15">
         <v>180</v>
       </c>
-      <c r="I125" s="16">
+      <c r="I127" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B127" s="11">
-        <v>80</v>
-      </c>
-      <c r="C127" s="11">
-        <v>450</v>
-      </c>
-      <c r="D127" s="11">
-        <v>1450</v>
-      </c>
-      <c r="E127" s="11">
-        <v>245</v>
-      </c>
-      <c r="F127" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G127" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H127" s="11">
-        <v>200</v>
-      </c>
-      <c r="I127" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B128" s="13">
-        <v>80</v>
-      </c>
-      <c r="C128" s="13">
-        <v>450</v>
-      </c>
-      <c r="D128" s="13">
-        <v>1450</v>
-      </c>
-      <c r="E128" s="13">
-        <v>245</v>
-      </c>
-      <c r="F128" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G128" s="13">
-        <v>2750</v>
-      </c>
-      <c r="H128" s="13">
-        <v>100</v>
-      </c>
-      <c r="I128" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B129" s="13">
-        <v>85</v>
-      </c>
-      <c r="C129" s="13">
+        <v>108</v>
+      </c>
+      <c r="B129" s="11">
+        <v>80</v>
+      </c>
+      <c r="C129" s="11">
         <v>450</v>
       </c>
-      <c r="D129" s="13">
+      <c r="D129" s="11">
         <v>1450</v>
       </c>
-      <c r="E129" s="13">
-        <v>250</v>
-      </c>
-      <c r="F129" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G129" s="13">
-        <v>2800</v>
-      </c>
-      <c r="H129" s="13">
-        <v>120</v>
-      </c>
-      <c r="I129" s="14">
+      <c r="E129" s="11">
+        <v>245</v>
+      </c>
+      <c r="F129" s="11">
         <v>2.5</v>
+      </c>
+      <c r="G129" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H129" s="11">
+        <v>200</v>
+      </c>
+      <c r="I129" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B130" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C130" s="13">
         <v>450</v>
@@ -4520,27 +4568,27 @@
         <v>1450</v>
       </c>
       <c r="E130" s="13">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F130" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G130" s="13">
-        <v>2850</v>
+        <v>2500</v>
       </c>
       <c r="H130" s="13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I130" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B131" s="13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C131" s="13">
         <v>450</v>
@@ -4549,154 +4597,154 @@
         <v>1450</v>
       </c>
       <c r="E131" s="13">
+        <v>250</v>
+      </c>
+      <c r="F131" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G131" s="13">
+        <v>2550</v>
+      </c>
+      <c r="H131" s="13">
+        <v>120</v>
+      </c>
+      <c r="I131" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="13">
+        <v>90</v>
+      </c>
+      <c r="C132" s="13">
+        <v>450</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E132" s="13">
+        <v>255</v>
+      </c>
+      <c r="F132" s="13">
+        <v>2</v>
+      </c>
+      <c r="G132" s="13">
+        <v>2600</v>
+      </c>
+      <c r="H132" s="13">
+        <v>140</v>
+      </c>
+      <c r="I132" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" s="13">
+        <v>95</v>
+      </c>
+      <c r="C133" s="13">
+        <v>450</v>
+      </c>
+      <c r="D133" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E133" s="13">
         <v>260</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F133" s="13">
         <v>1.75</v>
       </c>
-      <c r="G131" s="13">
-        <v>2900</v>
-      </c>
-      <c r="H131" s="13">
+      <c r="G133" s="13">
+        <v>2650</v>
+      </c>
+      <c r="H133" s="13">
         <v>160</v>
       </c>
-      <c r="I131" s="14">
+      <c r="I133" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B132" s="15">
+    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="15">
         <v>100</v>
       </c>
-      <c r="C132" s="15">
+      <c r="C134" s="15">
         <v>450</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D134" s="15">
         <v>1450</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E134" s="15">
         <v>265</v>
       </c>
-      <c r="F132" s="15">
+      <c r="F134" s="15">
         <v>1.5</v>
       </c>
-      <c r="G132" s="15">
-        <v>2950</v>
-      </c>
-      <c r="H132" s="15">
+      <c r="G134" s="15">
+        <v>2700</v>
+      </c>
+      <c r="H134" s="15">
         <v>180</v>
       </c>
-      <c r="I132" s="16">
+      <c r="I134" s="16">
         <v>1.75</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B134" s="11">
-        <v>80</v>
-      </c>
-      <c r="C134" s="11">
-        <v>450</v>
-      </c>
-      <c r="D134" s="11">
-        <v>1450</v>
-      </c>
-      <c r="E134" s="11">
-        <v>245</v>
-      </c>
-      <c r="F134" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G134" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H134" s="11">
-        <v>200</v>
-      </c>
-      <c r="I134" s="12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B135" s="13">
-        <v>80</v>
-      </c>
-      <c r="C135" s="13">
-        <v>450</v>
-      </c>
-      <c r="D135" s="13">
-        <v>1450</v>
-      </c>
-      <c r="E135" s="13">
-        <v>245</v>
-      </c>
-      <c r="F135" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G135" s="13">
-        <v>3000</v>
-      </c>
-      <c r="H135" s="13">
-        <v>100</v>
-      </c>
-      <c r="I135" s="14">
-        <v>2.65</v>
-      </c>
+    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="10"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="13">
-        <v>85</v>
-      </c>
-      <c r="C136" s="13">
+        <v>113</v>
+      </c>
+      <c r="B136" s="11">
+        <v>80</v>
+      </c>
+      <c r="C136" s="11">
         <v>450</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D136" s="11">
         <v>1450</v>
       </c>
-      <c r="E136" s="13">
-        <v>250</v>
-      </c>
-      <c r="F136" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G136" s="13">
-        <v>3050</v>
-      </c>
-      <c r="H136" s="13">
-        <v>120</v>
-      </c>
-      <c r="I136" s="14">
+      <c r="E136" s="11">
+        <v>245</v>
+      </c>
+      <c r="F136" s="11">
         <v>2.5</v>
+      </c>
+      <c r="G136" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H136" s="11">
+        <v>200</v>
+      </c>
+      <c r="I136" s="12">
+        <v>2.65</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B137" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C137" s="13">
         <v>450</v>
@@ -4705,27 +4753,27 @@
         <v>1450</v>
       </c>
       <c r="E137" s="13">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F137" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G137" s="13">
-        <v>3100</v>
+        <v>2750</v>
       </c>
       <c r="H137" s="13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I137" s="14">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B138" s="13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C138" s="13">
         <v>450</v>
@@ -4734,47 +4782,290 @@
         <v>1450</v>
       </c>
       <c r="E138" s="13">
+        <v>250</v>
+      </c>
+      <c r="F138" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G138" s="13">
+        <v>2800</v>
+      </c>
+      <c r="H138" s="13">
+        <v>120</v>
+      </c>
+      <c r="I138" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="13">
+        <v>90</v>
+      </c>
+      <c r="C139" s="13">
+        <v>450</v>
+      </c>
+      <c r="D139" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E139" s="13">
+        <v>255</v>
+      </c>
+      <c r="F139" s="13">
+        <v>2</v>
+      </c>
+      <c r="G139" s="13">
+        <v>2850</v>
+      </c>
+      <c r="H139" s="13">
+        <v>140</v>
+      </c>
+      <c r="I139" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" s="13">
+        <v>95</v>
+      </c>
+      <c r="C140" s="13">
+        <v>450</v>
+      </c>
+      <c r="D140" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E140" s="13">
         <v>260</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F140" s="13">
         <v>1.75</v>
       </c>
-      <c r="G138" s="13">
+      <c r="G140" s="13">
+        <v>2900</v>
+      </c>
+      <c r="H140" s="13">
+        <v>160</v>
+      </c>
+      <c r="I140" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="15">
+        <v>100</v>
+      </c>
+      <c r="C141" s="15">
+        <v>450</v>
+      </c>
+      <c r="D141" s="15">
+        <v>1450</v>
+      </c>
+      <c r="E141" s="15">
+        <v>265</v>
+      </c>
+      <c r="F141" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G141" s="15">
+        <v>2950</v>
+      </c>
+      <c r="H141" s="15">
+        <v>180</v>
+      </c>
+      <c r="I141" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="10"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="11">
+        <v>80</v>
+      </c>
+      <c r="C143" s="11">
+        <v>450</v>
+      </c>
+      <c r="D143" s="11">
+        <v>1450</v>
+      </c>
+      <c r="E143" s="11">
+        <v>245</v>
+      </c>
+      <c r="F143" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G143" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H143" s="11">
+        <v>200</v>
+      </c>
+      <c r="I143" s="12">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B144" s="13">
+        <v>80</v>
+      </c>
+      <c r="C144" s="13">
+        <v>450</v>
+      </c>
+      <c r="D144" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E144" s="13">
+        <v>245</v>
+      </c>
+      <c r="F144" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G144" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H144" s="13">
+        <v>100</v>
+      </c>
+      <c r="I144" s="14">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="13">
+        <v>85</v>
+      </c>
+      <c r="C145" s="13">
+        <v>450</v>
+      </c>
+      <c r="D145" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E145" s="13">
+        <v>250</v>
+      </c>
+      <c r="F145" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="G145" s="13">
+        <v>3050</v>
+      </c>
+      <c r="H145" s="13">
+        <v>120</v>
+      </c>
+      <c r="I145" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" s="13">
+        <v>90</v>
+      </c>
+      <c r="C146" s="13">
+        <v>450</v>
+      </c>
+      <c r="D146" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E146" s="13">
+        <v>255</v>
+      </c>
+      <c r="F146" s="13">
+        <v>2</v>
+      </c>
+      <c r="G146" s="13">
+        <v>3100</v>
+      </c>
+      <c r="H146" s="13">
+        <v>140</v>
+      </c>
+      <c r="I146" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" s="13">
+        <v>95</v>
+      </c>
+      <c r="C147" s="13">
+        <v>450</v>
+      </c>
+      <c r="D147" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E147" s="13">
+        <v>260</v>
+      </c>
+      <c r="F147" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="G147" s="13">
         <v>3150</v>
       </c>
-      <c r="H138" s="13">
+      <c r="H147" s="13">
         <v>160</v>
       </c>
-      <c r="I138" s="14">
+      <c r="I147" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+    <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="15">
+      <c r="B148" s="15">
         <v>100</v>
       </c>
-      <c r="C139" s="15">
+      <c r="C148" s="15">
         <v>450</v>
       </c>
-      <c r="D139" s="15">
+      <c r="D148" s="15">
         <v>1450</v>
       </c>
-      <c r="E139" s="15">
+      <c r="E148" s="15">
         <v>265</v>
       </c>
-      <c r="F139" s="15">
+      <c r="F148" s="15">
         <v>1.5</v>
       </c>
-      <c r="G139" s="15">
+      <c r="G148" s="15">
         <v>3200</v>
       </c>
-      <c r="H139" s="15">
+      <c r="H148" s="15">
         <v>180</v>
       </c>
-      <c r="I139" s="16">
+      <c r="I148" s="16">
         <v>1.75</v>
       </c>
     </row>
